--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -733,84 +733,84 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>9533</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>13401</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,84 +975,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5361</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-3.66</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-83.98</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-93.21</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5785</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-83.98</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-93.21</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-04-11</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>354954</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>773</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,84 +1459,84 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>-3.15</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39989</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-9.26</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>82717</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.17</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,84 +1701,84 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>11447</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>22443</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>232385</t>
+          <t>230926</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,84 +1943,84 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7536</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>7287</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>18.17</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>2025-03-12</t>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>34.01</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,84 +2185,84 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5860</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>231.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9533</t>
+          <t>6525</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>268</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5361</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.66</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>354954</t>
+          <t>345662</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>32.56</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39989</t>
+          <t>44302</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>38.57</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.46</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11447</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>230926</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7536</t>
+          <t>7612</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>34.01</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>76</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6525</t>
+          <t>16218</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>-16.80</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>345662</t>
+          <t>341946</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3019.0</t>
+          <t>82717.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,142 +1187,142 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>85.35</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>55.7</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>34050</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>41.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1292</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>186550.0</t>
+          <t>8954136.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>32.56</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82717.0</t>
+          <t>22443.387</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>44302</t>
+          <t>11791</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8954136.0</t>
+          <t>946095869.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22443.387</t>
+          <t>7287.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>726</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>946095869.0</t>
+          <t>54551.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>41.08</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7287.0</t>
+          <t>5860.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,192 +1913,192 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>44.59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-6.21</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>51.7</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>553799.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>17.15</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>7612</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>54551.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2122,248 +2122,6 @@
         </is>
       </c>
       <c r="AV7" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5860.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>44.59</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>31.05</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>231.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>553799.0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>33.49%</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>67.41</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>1226</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>杭特-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-16.80</t>
+          <t>-6.63</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>81</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2237</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>341946</t>
+          <t>349379</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82717.0</t>
+          <t>3019.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>70.55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>34050</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-22.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,37 +1292,37 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>8954136.0</t>
+          <t>186550.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22443.387</t>
+          <t>82717.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>81.68</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>101264</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>946095869.0</t>
+          <t>8954136.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7287.0</t>
+          <t>22443.387</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,202 +1671,202 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>5941</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>51.7</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>946095869.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>24.64</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>726</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>54551.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>41.08</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>19.83%</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1893,235 +1893,477 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7287.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>51.7</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>17248</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-21.20</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>54551.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>哲固</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>19.83%</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>1732</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>哲固-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>3297</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>9.54</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>5860.0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.15</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>6.74</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>44.59</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>31.05</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1342</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-6.21</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-5.33</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>231.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>95.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>553799.0</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>杭特</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>33.49%</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>-25.64%</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>66.84</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1161</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>杭特-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>15.63</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-6.63</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>349379</t>
+          <t>350308</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>729</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-22.12</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>101264</t>
+          <t>80371</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>22.37</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17248</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-21.20</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>37.01</t>
+          <t>39.88</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>55.69</t>
+          <t>35.87</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5742</t>
+          <t>12736</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.84</t>
+          <t>29.68</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-7.34</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>89</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>350308</t>
+          <t>328937</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3019.0</t>
+          <t>82717.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,142 +1187,142 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>70.55</t>
+          <t>81.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>55.7</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19287</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-9.81</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>41.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>17.55</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>729</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>186550.0</t>
+          <t>8954136.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.38</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>32.28</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82717.0</t>
+          <t>22443.387</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>81.68</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>80371</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8954136.0</t>
+          <t>946095869.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22443.387</t>
+          <t>7287.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>946095869.0</t>
+          <t>54551.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7287.0</t>
+          <t>5860.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,192 +1913,192 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>44.59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-6.08</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>51.7</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>553799.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>22.37</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2658</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>54551.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>39.88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2122,248 +2122,6 @@
         </is>
       </c>
       <c r="AV7" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5860.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>44.59</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>31.05</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>231.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>553799.0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>33.49%</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>66.65</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>杭特-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12736</t>
+          <t>6793</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>29.68</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-7.34</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>328937</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>19287</t>
+          <t>8778</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>38.38</t>
+          <t>42.21</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.33</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>568</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>25.64</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6793</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>32.64</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,84 +975,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>-1.88</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-83.98</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-93.21</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2162</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-83.98</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-93.21</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-04-11</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>346592</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82717.0</t>
+          <t>22443.387</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>81.68</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>8778</t>
+          <t>5306</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,82 +1307,82 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>8954136.0</t>
+          <t>946095869.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>226551</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22443.387</t>
+          <t>7287.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>17.81</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,92 +1539,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>946095869.0</t>
+          <t>54551.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>37.66</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7287.0</t>
+          <t>5860.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,192 +1671,192 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>44.59</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>51.7</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>553799.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>13.4</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1467</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-2.33</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>54551.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>哲固</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1880,248 +1880,6 @@
         </is>
       </c>
       <c r="AV6" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5860.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>44.59</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>31.05</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>568</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>231.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>553799.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>33.49%</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>杭特-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>35.87</t>
+          <t>35.73</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25.64</t>
+          <t>32.35</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>361</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>37501</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.88</t>
+          <t>39.44</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>346592</t>
+          <t>354025</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22443.387</t>
+          <t>82717.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>81.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>236</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>36851</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-7.17</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1302,87 +1302,87 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>946095869.0</t>
+          <t>8954136.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>43.18</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>226551</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>37.66</t>
+          <t>41.38</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>35.73</t>
+          <t>35.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>32.35</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>134</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>37501</t>
+          <t>38017</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>39.44</t>
+          <t>37.88</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>354025</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>36851</t>
+          <t>51498</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-7.17</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>43.18</t>
+          <t>47.47</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>41.38</t>
+          <t>40.72</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>75.24</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>75.24</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">

--- a/Result/check3/2025-04-11.xlsx
+++ b/Result/check3/2025-04-11.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>29.57</t>
+          <t>35.87</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>38017</t>
+          <t>19094</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>37.88</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,84 +975,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-83.98</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-93.21</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1069</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-1.05</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-83.98</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-93.21</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-04-11</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>358671</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>276</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>51498</t>
+          <t>84019</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>-7.59</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>47.47</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>29.18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>43.71</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
